--- a/biology/Zoologie/Gorbiscape/Gorbiscape.xlsx
+++ b/biology/Zoologie/Gorbiscape/Gorbiscape.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gorbiscape est un genre d'araignées aranéomorphes de la famille des Agelenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gorbiscape est un genre d'araignées aranéomorphes de la famille des Agelenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Tadjikistan et dans l'Ouest du bassin méditerranéen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Tadjikistan et dans l'Ouest du bassin méditerranéen.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 21.0, 07/04/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 21.0, 07/04/2020) :
 Gorbiscape agelenoides (Walckenaer, 1841)
 Gorbiscape gorbachevi Zamani &amp; Marusik, 2020</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Mikhaïl Gorbatchev[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Mikhaïl Gorbatchev.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Zamani &amp; Marusik, 2020 : A review of Agelenini (Araneae: Agelenidae: Ageleninae) of Iran and Tajikistan, with descriptions of four new genera. Arachnology, vol. 18, no 4, p. 368-386.</t>
         </is>
